--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whut\code\Inventory_Management_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2D0C59-6B78-4B28-A409-90E3EDB196BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0F743-500A-4675-9FC2-D6DF292ADF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>算法</t>
   </si>
@@ -159,13 +159,33 @@
     <t>正常倍数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>fitness-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升后</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -257,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -271,13 +291,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,7 +314,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -870,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:O22"/>
+  <dimension ref="A3:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -884,7 +907,7 @@
   <sheetData>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -896,10 +919,10 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -911,12 +934,12 @@
       <c r="K4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -926,8 +949,8 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
@@ -937,11 +960,11 @@
       <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1102,175 +1125,528 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>299</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <f>A13*$N$6</f>
         <v>1654.6254485787633</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>499</v>
       </c>
-      <c r="H13" s="14">
+      <c r="E13" s="14">
+        <f>D13*$N$6</f>
+        <v>2761.3983238822839</v>
+      </c>
+      <c r="H13" s="12">
         <v>840</v>
       </c>
-      <c r="M13" s="11">
+      <c r="I13" s="14">
+        <f>H13*$N$6</f>
+        <v>4648.4460762747867</v>
+      </c>
+      <c r="M13" s="9">
         <v>1011</v>
       </c>
+      <c r="N13" s="14">
+        <f>M13*$N$6</f>
+        <v>5594.7368846592972</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>304</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <f t="shared" ref="B14:B20" si="1">A14*$N$6</f>
         <v>1682.2947704613514</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>496</v>
       </c>
-      <c r="H14" s="14">
+      <c r="E14" s="14">
+        <f t="shared" ref="E14:E20" si="2">D14*$N$6</f>
+        <v>2744.796730752731</v>
+      </c>
+      <c r="H14" s="12">
         <v>797</v>
       </c>
-      <c r="M14" s="11">
+      <c r="I14" s="14">
+        <f t="shared" ref="I14:I20" si="3">H14*$N$6</f>
+        <v>4410.4899080845298</v>
+      </c>
+      <c r="M14" s="9">
         <v>1002</v>
       </c>
+      <c r="N14" s="14">
+        <f t="shared" ref="N14:N20" si="4">M14*$N$6</f>
+        <v>5544.9321052706382</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>294</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <f t="shared" si="1"/>
         <v>1626.9561266961753</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>511</v>
       </c>
-      <c r="H15" s="14">
+      <c r="E15" s="14">
+        <f t="shared" si="2"/>
+        <v>2827.8046964004952</v>
+      </c>
+      <c r="H15" s="12">
         <v>789</v>
       </c>
-      <c r="M15" s="11">
+      <c r="I15" s="14">
+        <f t="shared" si="3"/>
+        <v>4366.2189930723889</v>
+      </c>
+      <c r="M15" s="9">
         <v>1002</v>
       </c>
+      <c r="N15" s="14">
+        <f t="shared" si="4"/>
+        <v>5544.9321052706382</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>300</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <f t="shared" si="1"/>
         <v>1660.1593129552809</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>513</v>
       </c>
-      <c r="H16" s="14">
+      <c r="E16" s="14">
+        <f t="shared" si="2"/>
+        <v>2838.8724251535305</v>
+      </c>
+      <c r="H16" s="12">
         <v>799</v>
       </c>
-      <c r="M16" s="11">
+      <c r="I16" s="14">
+        <f t="shared" si="3"/>
+        <v>4421.557636837565</v>
+      </c>
+      <c r="M16" s="9">
         <v>1002</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="N16" s="14">
+        <f t="shared" si="4"/>
+        <v>5544.9321052706382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>301</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <f t="shared" si="1"/>
         <v>1665.6931773317986</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>496</v>
       </c>
-      <c r="H17" s="14">
+      <c r="E17" s="14">
+        <f t="shared" si="2"/>
+        <v>2744.796730752731</v>
+      </c>
+      <c r="H17" s="12">
         <v>809</v>
       </c>
-      <c r="M17" s="11">
+      <c r="I17" s="14">
+        <f t="shared" si="3"/>
+        <v>4476.8962806027412</v>
+      </c>
+      <c r="M17" s="9">
         <v>1009</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="N17" s="14">
+        <f t="shared" si="4"/>
+        <v>5583.6691559062619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>287</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <f t="shared" si="1"/>
         <v>1588.2190760605522</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>500</v>
       </c>
-      <c r="H18" s="14">
+      <c r="E18" s="14">
+        <f t="shared" si="2"/>
+        <v>2766.9321882588015</v>
+      </c>
+      <c r="H18" s="12">
         <v>798</v>
       </c>
-      <c r="M18" s="11">
+      <c r="I18" s="14">
+        <f t="shared" si="3"/>
+        <v>4416.023772461047</v>
+      </c>
+      <c r="M18" s="9">
         <v>978</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="N18" s="14">
+        <f t="shared" si="4"/>
+        <v>5412.1193602342155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>306</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <f t="shared" si="1"/>
         <v>1693.3624992143866</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>525</v>
       </c>
-      <c r="H19" s="14">
+      <c r="E19" s="14">
+        <f t="shared" si="2"/>
+        <v>2905.2787976717418</v>
+      </c>
+      <c r="H19" s="12">
         <v>785</v>
       </c>
-      <c r="M19" s="11">
+      <c r="I19" s="14">
+        <f t="shared" si="3"/>
+        <v>4344.0835355663185</v>
+      </c>
+      <c r="M19" s="9">
         <v>1006</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="N19" s="14">
+        <f t="shared" si="4"/>
+        <v>5567.0675627767087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>306</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <f t="shared" si="1"/>
         <v>1693.3624992143866</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>493</v>
       </c>
-      <c r="H20" s="15">
+      <c r="E20" s="14">
+        <f t="shared" si="2"/>
+        <v>2728.1951376231782</v>
+      </c>
+      <c r="H20" s="13">
         <v>801</v>
       </c>
-      <c r="M20" s="12">
+      <c r="I20" s="14">
+        <f t="shared" si="3"/>
+        <v>4432.6253655906003</v>
+      </c>
+      <c r="M20" s="10">
         <v>994</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="14">
+        <f t="shared" si="4"/>
+        <v>5500.6611902584973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>263</v>
+      </c>
+      <c r="B24" s="14">
+        <f>A24*$M$6</f>
+        <v>1631.6469414215828</v>
+      </c>
+      <c r="D24" s="17">
+        <v>436</v>
+      </c>
+      <c r="E24" s="14">
+        <f>D24*$M$6</f>
+        <v>2704.935613915628</v>
+      </c>
+      <c r="H24" s="17">
+        <v>704</v>
+      </c>
+      <c r="I24" s="14">
+        <f>H24*$M$6</f>
+        <v>4367.6024591665182</v>
+      </c>
+      <c r="M24" s="17">
+        <v>878</v>
+      </c>
+      <c r="N24" s="14">
+        <f>M24*$M$6</f>
+        <v>5447.0951124264247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>264</v>
+      </c>
+      <c r="B25" s="14">
+        <f t="shared" ref="B25:B31" si="5">A25*$M$6</f>
+        <v>1637.8509221874444</v>
+      </c>
+      <c r="D25" s="17">
+        <v>437</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" ref="E25:E31" si="6">D25*$M$6</f>
+        <v>2711.1395946814896</v>
+      </c>
+      <c r="H25" s="17">
+        <v>704</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" ref="I25:I31" si="7">H25*$M$6</f>
+        <v>4367.6024591665182</v>
+      </c>
+      <c r="M25" s="17">
+        <v>877</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" ref="N25:N31" si="8">M25*$M$6</f>
+        <v>5440.8911316605636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>262</v>
+      </c>
+      <c r="B26" s="14">
+        <f t="shared" si="5"/>
+        <v>1625.4429606557214</v>
+      </c>
+      <c r="D26" s="17">
+        <v>447</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="6"/>
+        <v>2773.1794023401048</v>
+      </c>
+      <c r="H26" s="17">
+        <v>705</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="7"/>
+        <v>4373.8064399323803</v>
+      </c>
+      <c r="M26" s="17">
+        <v>898</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="8"/>
+        <v>5571.1747277436561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>262</v>
+      </c>
+      <c r="B27" s="14">
+        <f t="shared" si="5"/>
+        <v>1625.4429606557214</v>
+      </c>
+      <c r="D27" s="17">
+        <v>435</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="6"/>
+        <v>2698.7316331497664</v>
+      </c>
+      <c r="H27" s="17">
+        <v>700</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="7"/>
+        <v>4342.7865361030726</v>
+      </c>
+      <c r="M27" s="17">
+        <v>873</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="8"/>
+        <v>5416.0752085971171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>256</v>
+      </c>
+      <c r="B28" s="14">
+        <f t="shared" si="5"/>
+        <v>1588.2190760605522</v>
+      </c>
+      <c r="D28" s="17">
+        <v>435</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="6"/>
+        <v>2698.7316331497664</v>
+      </c>
+      <c r="H28" s="17">
+        <v>702</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="7"/>
+        <v>4355.1944976347959</v>
+      </c>
+      <c r="M28" s="17">
+        <v>872</v>
+      </c>
+      <c r="N28" s="14">
+        <f t="shared" si="8"/>
+        <v>5409.871227831256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>266</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="5"/>
+        <v>1650.2588837191674</v>
+      </c>
+      <c r="D29" s="17">
+        <v>438</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="6"/>
+        <v>2717.3435754473512</v>
+      </c>
+      <c r="H29" s="17">
+        <v>702</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="7"/>
+        <v>4355.1944976347959</v>
+      </c>
+      <c r="M29" s="17">
+        <v>882</v>
+      </c>
+      <c r="N29" s="14">
+        <f t="shared" si="8"/>
+        <v>5471.9110354898712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <v>271</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="5"/>
+        <v>1681.2787875484751</v>
+      </c>
+      <c r="D30" s="17">
+        <v>443</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="6"/>
+        <v>2748.3634792766588</v>
+      </c>
+      <c r="H30" s="17">
+        <v>702</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="7"/>
+        <v>4355.1944976347959</v>
+      </c>
+      <c r="M30" s="17">
+        <v>880</v>
+      </c>
+      <c r="N30" s="14">
+        <f t="shared" si="8"/>
+        <v>5459.503073958148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <v>266</v>
+      </c>
+      <c r="B31" s="14">
+        <f t="shared" si="5"/>
+        <v>1650.2588837191674</v>
+      </c>
+      <c r="D31" s="17">
+        <v>445</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="6"/>
+        <v>2760.7714408083816</v>
+      </c>
+      <c r="H31" s="17">
+        <v>694</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="7"/>
+        <v>4305.562651507903</v>
+      </c>
+      <c r="M31" s="17">
+        <v>876</v>
+      </c>
+      <c r="N31" s="14">
+        <f t="shared" si="8"/>
+        <v>5434.6871508947024</v>
       </c>
     </row>
   </sheetData>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whut\code\Inventory_Management_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0F743-500A-4675-9FC2-D6DF292ADF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620878B5-73CD-4F3C-A5E0-BE273E879473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>算法</t>
   </si>
@@ -179,6 +179,10 @@
     <t>提升后</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>不增加惩罚措施</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +230,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -277,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -324,6 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -347,13 +359,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -418,13 +430,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -489,13 +501,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -560,13 +572,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -893,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:O31"/>
+  <dimension ref="A3:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1136,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
@@ -1141,126 +1153,105 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" t="s">
+    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="D12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>299</v>
-      </c>
-      <c r="B13" s="14">
-        <f>A13*$N$6</f>
-        <v>1654.6254485787633</v>
-      </c>
-      <c r="D13" s="9">
-        <v>499</v>
-      </c>
-      <c r="E13" s="14">
-        <f>D13*$N$6</f>
-        <v>2761.3983238822839</v>
-      </c>
-      <c r="H13" s="12">
-        <v>840</v>
-      </c>
-      <c r="I13" s="14">
-        <f>H13*$N$6</f>
-        <v>4648.4460762747867</v>
-      </c>
-      <c r="M13" s="9">
-        <v>1011</v>
-      </c>
-      <c r="N13" s="14">
-        <f>M13*$N$6</f>
-        <v>5594.7368846592972</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B14" s="14">
-        <f t="shared" ref="B14:B20" si="1">A14*$N$6</f>
-        <v>1682.2947704613514</v>
+        <f>A14*$N$6</f>
+        <v>1654.6254485787633</v>
       </c>
       <c r="D14" s="9">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" ref="E14:E20" si="2">D14*$N$6</f>
-        <v>2744.796730752731</v>
+        <f>D14*$N$6</f>
+        <v>2761.3983238822839</v>
       </c>
       <c r="H14" s="12">
-        <v>797</v>
+        <v>840</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" ref="I14:I20" si="3">H14*$N$6</f>
-        <v>4410.4899080845298</v>
+        <f>H14*$N$6</f>
+        <v>4648.4460762747867</v>
       </c>
       <c r="M14" s="9">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" ref="N14:N20" si="4">M14*$N$6</f>
-        <v>5544.9321052706382</v>
+        <f>M14*$N$6</f>
+        <v>5594.7368846592972</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
+        <v>304</v>
+      </c>
+      <c r="B15" s="14">
+        <f t="shared" ref="B15:B21" si="1">A15*$N$6</f>
+        <v>1682.2947704613514</v>
+      </c>
+      <c r="D15" s="9">
+        <v>496</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" ref="E15:E21" si="2">D15*$N$6</f>
+        <v>2744.796730752731</v>
+      </c>
+      <c r="H15" s="12">
+        <v>797</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" ref="I15:I21" si="3">H15*$N$6</f>
+        <v>4410.4899080845298</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1002</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" ref="N15:N21" si="4">M15*$N$6</f>
+        <v>5544.9321052706382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>294</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B16" s="14">
         <f t="shared" si="1"/>
         <v>1626.9561266961753</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>511</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="14">
         <f t="shared" si="2"/>
         <v>2827.8046964004952</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H16" s="12">
         <v>789</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <f t="shared" si="3"/>
         <v>4366.2189930723889</v>
-      </c>
-      <c r="M15" s="9">
-        <v>1002</v>
-      </c>
-      <c r="N15" s="14">
-        <f t="shared" si="4"/>
-        <v>5544.9321052706382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>300</v>
-      </c>
-      <c r="B16" s="14">
-        <f t="shared" si="1"/>
-        <v>1660.1593129552809</v>
-      </c>
-      <c r="D16" s="9">
-        <v>513</v>
-      </c>
-      <c r="E16" s="14">
-        <f t="shared" si="2"/>
-        <v>2838.8724251535305</v>
-      </c>
-      <c r="H16" s="12">
-        <v>799</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="3"/>
-        <v>4421.557636837565</v>
       </c>
       <c r="M16" s="9">
         <v>1002</v>
@@ -1272,231 +1263,231 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B17" s="14">
         <f t="shared" si="1"/>
-        <v>1665.6931773317986</v>
+        <v>1660.1593129552809</v>
       </c>
       <c r="D17" s="9">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" si="2"/>
-        <v>2744.796730752731</v>
+        <v>2838.8724251535305</v>
       </c>
       <c r="H17" s="12">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="3"/>
-        <v>4476.8962806027412</v>
+        <v>4421.557636837565</v>
       </c>
       <c r="M17" s="9">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" si="4"/>
-        <v>5583.6691559062619</v>
+        <v>5544.9321052706382</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B18" s="14">
         <f t="shared" si="1"/>
-        <v>1588.2190760605522</v>
+        <v>1665.6931773317986</v>
       </c>
       <c r="D18" s="9">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="2"/>
-        <v>2766.9321882588015</v>
+        <v>2744.796730752731</v>
       </c>
       <c r="H18" s="12">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="I18" s="14">
         <f t="shared" si="3"/>
-        <v>4416.023772461047</v>
+        <v>4476.8962806027412</v>
       </c>
       <c r="M18" s="9">
-        <v>978</v>
+        <v>1009</v>
       </c>
       <c r="N18" s="14">
         <f t="shared" si="4"/>
-        <v>5412.1193602342155</v>
+        <v>5583.6691559062619</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B19" s="14">
         <f t="shared" si="1"/>
-        <v>1693.3624992143866</v>
+        <v>1588.2190760605522</v>
       </c>
       <c r="D19" s="9">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="2"/>
-        <v>2905.2787976717418</v>
+        <v>2766.9321882588015</v>
       </c>
       <c r="H19" s="12">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="3"/>
-        <v>4344.0835355663185</v>
+        <v>4416.023772461047</v>
       </c>
       <c r="M19" s="9">
-        <v>1006</v>
+        <v>978</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" si="4"/>
-        <v>5567.0675627767087</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+        <v>5412.1193602342155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>306</v>
       </c>
       <c r="B20" s="14">
         <f t="shared" si="1"/>
         <v>1693.3624992143866</v>
       </c>
-      <c r="D20" s="10">
-        <v>493</v>
+      <c r="D20" s="9">
+        <v>525</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="2"/>
-        <v>2728.1951376231782</v>
-      </c>
-      <c r="H20" s="13">
-        <v>801</v>
+        <v>2905.2787976717418</v>
+      </c>
+      <c r="H20" s="12">
+        <v>785</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" si="3"/>
-        <v>4432.6253655906003</v>
-      </c>
-      <c r="M20" s="10">
-        <v>994</v>
+        <v>4344.0835355663185</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1006</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" si="4"/>
+        <v>5567.0675627767087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>306</v>
+      </c>
+      <c r="B21" s="14">
+        <f t="shared" si="1"/>
+        <v>1693.3624992143866</v>
+      </c>
+      <c r="D21" s="10">
+        <v>493</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="2"/>
+        <v>2728.1951376231782</v>
+      </c>
+      <c r="H21" s="13">
+        <v>801</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="3"/>
+        <v>4432.6253655906003</v>
+      </c>
+      <c r="M21" s="10">
+        <v>994</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="4"/>
         <v>5500.6611902584973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M24" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
-        <v>263</v>
-      </c>
-      <c r="B24" s="14">
-        <f>A24*$M$6</f>
-        <v>1631.6469414215828</v>
-      </c>
-      <c r="D24" s="17">
-        <v>436</v>
-      </c>
-      <c r="E24" s="14">
-        <f>D24*$M$6</f>
-        <v>2704.935613915628</v>
-      </c>
-      <c r="H24" s="17">
-        <v>704</v>
-      </c>
-      <c r="I24" s="14">
-        <f>H24*$M$6</f>
-        <v>4367.6024591665182</v>
-      </c>
-      <c r="M24" s="17">
-        <v>878</v>
-      </c>
-      <c r="N24" s="14">
-        <f>M24*$M$6</f>
-        <v>5447.0951124264247</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25" s="14">
-        <f t="shared" ref="B25:B31" si="5">A25*$M$6</f>
-        <v>1637.8509221874444</v>
+        <f>A25*$M$6</f>
+        <v>1631.6469414215828</v>
       </c>
       <c r="D25" s="17">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" ref="E25:E31" si="6">D25*$M$6</f>
-        <v>2711.1395946814896</v>
+        <f>D25*$M$6</f>
+        <v>2704.935613915628</v>
       </c>
       <c r="H25" s="17">
         <v>704</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" ref="I25:I31" si="7">H25*$M$6</f>
+        <f>H25*$M$6</f>
         <v>4367.6024591665182</v>
       </c>
       <c r="M25" s="17">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" ref="N25:N31" si="8">M25*$M$6</f>
-        <v>5440.8911316605636</v>
+        <f>M25*$M$6</f>
+        <v>5447.0951124264247</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B26" s="14">
-        <f t="shared" si="5"/>
-        <v>1625.4429606557214</v>
+        <f t="shared" ref="B26:B32" si="5">A26*$M$6</f>
+        <v>1637.8509221874444</v>
       </c>
       <c r="D26" s="17">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="6"/>
-        <v>2773.1794023401048</v>
+        <f t="shared" ref="E26:E32" si="6">D26*$M$6</f>
+        <v>2711.1395946814896</v>
       </c>
       <c r="H26" s="17">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="7"/>
-        <v>4373.8064399323803</v>
+        <f t="shared" ref="I26:I32" si="7">H26*$M$6</f>
+        <v>4367.6024591665182</v>
       </c>
       <c r="M26" s="17">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="8"/>
-        <v>5571.1747277436561</v>
+        <f t="shared" ref="N26:N32" si="8">M26*$M$6</f>
+        <v>5440.8911316605636</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1508,34 +1499,34 @@
         <v>1625.4429606557214</v>
       </c>
       <c r="D27" s="17">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E27" s="14">
         <f t="shared" si="6"/>
-        <v>2698.7316331497664</v>
+        <v>2773.1794023401048</v>
       </c>
       <c r="H27" s="17">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="I27" s="14">
         <f t="shared" si="7"/>
-        <v>4342.7865361030726</v>
+        <v>4373.8064399323803</v>
       </c>
       <c r="M27" s="17">
-        <v>873</v>
+        <v>898</v>
       </c>
       <c r="N27" s="14">
         <f t="shared" si="8"/>
-        <v>5416.0752085971171</v>
+        <v>5571.1747277436561</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B28" s="14">
         <f t="shared" si="5"/>
-        <v>1588.2190760605522</v>
+        <v>1625.4429606557214</v>
       </c>
       <c r="D28" s="17">
         <v>435</v>
@@ -1545,34 +1536,34 @@
         <v>2698.7316331497664</v>
       </c>
       <c r="H28" s="17">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="7"/>
-        <v>4355.1944976347959</v>
+        <v>4342.7865361030726</v>
       </c>
       <c r="M28" s="17">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N28" s="14">
         <f t="shared" si="8"/>
-        <v>5409.871227831256</v>
+        <v>5416.0752085971171</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B29" s="14">
         <f t="shared" si="5"/>
-        <v>1650.2588837191674</v>
+        <v>1588.2190760605522</v>
       </c>
       <c r="D29" s="17">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E29" s="14">
         <f t="shared" si="6"/>
-        <v>2717.3435754473512</v>
+        <v>2698.7316331497664</v>
       </c>
       <c r="H29" s="17">
         <v>702</v>
@@ -1582,27 +1573,27 @@
         <v>4355.1944976347959</v>
       </c>
       <c r="M29" s="17">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="N29" s="14">
         <f t="shared" si="8"/>
-        <v>5471.9110354898712</v>
+        <v>5409.871227831256</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B30" s="14">
         <f t="shared" si="5"/>
-        <v>1681.2787875484751</v>
+        <v>1650.2588837191674</v>
       </c>
       <c r="D30" s="17">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" si="6"/>
-        <v>2748.3634792766588</v>
+        <v>2717.3435754473512</v>
       </c>
       <c r="H30" s="17">
         <v>702</v>
@@ -1612,39 +1603,69 @@
         <v>4355.1944976347959</v>
       </c>
       <c r="M30" s="17">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="N30" s="14">
         <f t="shared" si="8"/>
-        <v>5459.503073958148</v>
+        <v>5471.9110354898712</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B31" s="14">
         <f t="shared" si="5"/>
-        <v>1650.2588837191674</v>
+        <v>1681.2787875484751</v>
       </c>
       <c r="D31" s="17">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E31" s="14">
         <f t="shared" si="6"/>
-        <v>2760.7714408083816</v>
+        <v>2748.3634792766588</v>
       </c>
       <c r="H31" s="17">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="I31" s="14">
         <f t="shared" si="7"/>
+        <v>4355.1944976347959</v>
+      </c>
+      <c r="M31" s="17">
+        <v>880</v>
+      </c>
+      <c r="N31" s="14">
+        <f t="shared" si="8"/>
+        <v>5459.503073958148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
+        <v>266</v>
+      </c>
+      <c r="B32" s="14">
+        <f t="shared" si="5"/>
+        <v>1650.2588837191674</v>
+      </c>
+      <c r="D32" s="17">
+        <v>445</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="6"/>
+        <v>2760.7714408083816</v>
+      </c>
+      <c r="H32" s="17">
+        <v>694</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="7"/>
         <v>4305.562651507903</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M32" s="17">
         <v>876</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N32" s="14">
         <f t="shared" si="8"/>
         <v>5434.6871508947024</v>
       </c>
@@ -1658,6 +1679,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>